--- a/dataset_7/[국적별 관광객 데이터] 말레이시아.xlsx
+++ b/dataset_7/[국적별 관광객 데이터] 말레이시아.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="141">
   <si>
     <t>국적</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>계</t>
+  </si>
+  <si>
+    <t>전년동기</t>
+  </si>
+  <si>
+    <t>성장률(%)</t>
+  </si>
+  <si>
+    <t>구성비(%)</t>
   </si>
   <si>
     <t>기준년월</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,10 +834,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>3292</v>
@@ -848,22 +866,31 @@
       <c r="G2">
         <v>4559</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
+      <c r="H2">
+        <v>6714</v>
+      </c>
+      <c r="I2">
+        <v>-32.1</v>
       </c>
       <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2">
         <v>72.2</v>
       </c>
-      <c r="K2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5914</v>
@@ -883,22 +910,31 @@
       <c r="G3">
         <v>7483</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
+      <c r="H3">
+        <v>4450</v>
+      </c>
+      <c r="I3">
+        <v>68.2</v>
       </c>
       <c r="J3">
+        <v>1.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3">
         <v>79</v>
       </c>
-      <c r="K3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6794</v>
@@ -918,22 +954,31 @@
       <c r="G4">
         <v>8333</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>137</v>
+      <c r="H4">
+        <v>6155</v>
+      </c>
+      <c r="I4">
+        <v>35.4</v>
       </c>
       <c r="J4">
+        <v>1.1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4">
         <v>81.5</v>
       </c>
-      <c r="K4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>10350</v>
@@ -953,22 +998,31 @@
       <c r="G5">
         <v>11591</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>137</v>
+      <c r="H5">
+        <v>8608</v>
+      </c>
+      <c r="I5">
+        <v>34.7</v>
       </c>
       <c r="J5">
+        <v>1.6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5">
         <v>89.3</v>
       </c>
-      <c r="K5">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>6017</v>
@@ -988,22 +1042,31 @@
       <c r="G6">
         <v>7379</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
+      <c r="H6">
+        <v>5420</v>
+      </c>
+      <c r="I6">
+        <v>36.1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6">
         <v>81.5</v>
       </c>
-      <c r="K6">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5802</v>
@@ -1023,22 +1086,31 @@
       <c r="G7">
         <v>7151</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>137</v>
+      <c r="H7">
+        <v>5443</v>
+      </c>
+      <c r="I7">
+        <v>31.4</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7">
         <v>81.09999999999999</v>
       </c>
-      <c r="K7">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>3552</v>
@@ -1058,22 +1130,31 @@
       <c r="G8">
         <v>5019</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
+      <c r="H8">
+        <v>3559</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
       </c>
       <c r="J8">
+        <v>0.7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8">
         <v>70.8</v>
       </c>
-      <c r="K8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>3214</v>
@@ -1093,22 +1174,31 @@
       <c r="G9">
         <v>5027</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>137</v>
+      <c r="H9">
+        <v>3913</v>
+      </c>
+      <c r="I9">
+        <v>28.5</v>
       </c>
       <c r="J9">
+        <v>0.6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9">
         <v>63.9</v>
       </c>
-      <c r="K9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>7044</v>
@@ -1128,22 +1218,31 @@
       <c r="G10">
         <v>8443</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
+      <c r="H10">
+        <v>5615</v>
+      </c>
+      <c r="I10">
+        <v>50.4</v>
       </c>
       <c r="J10">
+        <v>1.1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10">
         <v>83.40000000000001</v>
       </c>
-      <c r="K10">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>8311</v>
@@ -1163,22 +1262,31 @@
       <c r="G11">
         <v>9609</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>137</v>
+      <c r="H11">
+        <v>6826</v>
+      </c>
+      <c r="I11">
+        <v>40.8</v>
       </c>
       <c r="J11">
+        <v>1.1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11">
         <v>86.5</v>
       </c>
-      <c r="K11">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>14924</v>
@@ -1198,22 +1306,31 @@
       <c r="G12">
         <v>16474</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>137</v>
+      <c r="H12">
+        <v>8629</v>
+      </c>
+      <c r="I12">
+        <v>90.90000000000001</v>
       </c>
       <c r="J12">
+        <v>2.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12">
         <v>90.59999999999999</v>
       </c>
-      <c r="K12">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>20776</v>
@@ -1233,22 +1350,31 @@
       <c r="G13">
         <v>22607</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
+      <c r="H13">
+        <v>14773</v>
+      </c>
+      <c r="I13">
+        <v>53</v>
       </c>
       <c r="J13">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13">
         <v>91.90000000000001</v>
       </c>
-      <c r="K13">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>6559</v>
@@ -1268,22 +1394,31 @@
       <c r="G14">
         <v>8386</v>
       </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>137</v>
+      <c r="H14">
+        <v>4559</v>
+      </c>
+      <c r="I14">
+        <v>83.90000000000001</v>
       </c>
       <c r="J14">
+        <v>1.4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14">
         <v>78.2</v>
       </c>
-      <c r="K14">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>9440</v>
@@ -1303,22 +1438,31 @@
       <c r="G15">
         <v>11567</v>
       </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>137</v>
+      <c r="H15">
+        <v>7483</v>
+      </c>
+      <c r="I15">
+        <v>54.6</v>
       </c>
       <c r="J15">
+        <v>1.7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15">
         <v>81.59999999999999</v>
       </c>
-      <c r="K15">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>11031</v>
@@ -1338,22 +1482,31 @@
       <c r="G16">
         <v>12871</v>
       </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>137</v>
+      <c r="H16">
+        <v>8333</v>
+      </c>
+      <c r="I16">
+        <v>54.5</v>
       </c>
       <c r="J16">
+        <v>1.6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16">
         <v>85.7</v>
       </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>13054</v>
@@ -1373,22 +1526,31 @@
       <c r="G17">
         <v>14863</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>137</v>
+      <c r="H17">
+        <v>11591</v>
+      </c>
+      <c r="I17">
+        <v>28.2</v>
       </c>
       <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17">
         <v>87.8</v>
       </c>
-      <c r="K17">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>10265</v>
@@ -1408,22 +1570,31 @@
       <c r="G18">
         <v>12053</v>
       </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>137</v>
+      <c r="H18">
+        <v>7379</v>
+      </c>
+      <c r="I18">
+        <v>63.3</v>
       </c>
       <c r="J18">
+        <v>1.6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18">
         <v>85.2</v>
       </c>
-      <c r="K18">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>8244</v>
@@ -1443,22 +1614,31 @@
       <c r="G19">
         <v>10146</v>
       </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>137</v>
+      <c r="H19">
+        <v>7151</v>
+      </c>
+      <c r="I19">
+        <v>41.9</v>
       </c>
       <c r="J19">
+        <v>1.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19">
         <v>81.3</v>
       </c>
-      <c r="K19">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>6148</v>
@@ -1478,22 +1658,31 @@
       <c r="G20">
         <v>8135</v>
       </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
-        <v>137</v>
+      <c r="H20">
+        <v>5019</v>
+      </c>
+      <c r="I20">
+        <v>62.1</v>
       </c>
       <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20">
         <v>75.59999999999999</v>
       </c>
-      <c r="K20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>7450</v>
@@ -1513,22 +1702,31 @@
       <c r="G21">
         <v>9641</v>
       </c>
-      <c r="H21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" t="s">
-        <v>137</v>
+      <c r="H21">
+        <v>5027</v>
+      </c>
+      <c r="I21">
+        <v>91.8</v>
       </c>
       <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21">
         <v>77.3</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>10281</v>
@@ -1548,22 +1746,31 @@
       <c r="G22">
         <v>12535</v>
       </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>137</v>
+      <c r="H22">
+        <v>8443</v>
+      </c>
+      <c r="I22">
+        <v>48.5</v>
       </c>
       <c r="J22">
+        <v>1.4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22">
         <v>82</v>
       </c>
-      <c r="K22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>14250</v>
@@ -1583,22 +1790,31 @@
       <c r="G23">
         <v>16115</v>
       </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>137</v>
+      <c r="H23">
+        <v>9609</v>
+      </c>
+      <c r="I23">
+        <v>67.7</v>
       </c>
       <c r="J23">
+        <v>1.6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23">
         <v>88.40000000000001</v>
       </c>
-      <c r="K23">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>13923</v>
@@ -1618,22 +1834,31 @@
       <c r="G24">
         <v>15636</v>
       </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" t="s">
-        <v>137</v>
+      <c r="H24">
+        <v>16474</v>
+      </c>
+      <c r="I24">
+        <v>-5.1</v>
       </c>
       <c r="J24">
+        <v>1.8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24">
         <v>89</v>
       </c>
-      <c r="K24">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>22588</v>
@@ -1653,22 +1878,31 @@
       <c r="G25">
         <v>24333</v>
       </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
+      <c r="H25">
+        <v>22607</v>
+      </c>
+      <c r="I25">
+        <v>7.6</v>
       </c>
       <c r="J25">
+        <v>2.9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25">
         <v>92.8</v>
       </c>
-      <c r="K25">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>9983</v>
@@ -1688,22 +1922,31 @@
       <c r="G26">
         <v>11807</v>
       </c>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s">
-        <v>137</v>
+      <c r="H26">
+        <v>8386</v>
+      </c>
+      <c r="I26">
+        <v>40.8</v>
       </c>
       <c r="J26">
+        <v>1.6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26">
         <v>84.59999999999999</v>
       </c>
-      <c r="K26">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>8286</v>
@@ -1723,22 +1966,31 @@
       <c r="G27">
         <v>10295</v>
       </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>137</v>
+      <c r="H27">
+        <v>11567</v>
+      </c>
+      <c r="I27">
+        <v>-11</v>
       </c>
       <c r="J27">
+        <v>1.3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27">
         <v>80.5</v>
       </c>
-      <c r="K27">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>12407</v>
@@ -1758,22 +2010,31 @@
       <c r="G28">
         <v>13906</v>
       </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s">
-        <v>137</v>
+      <c r="H28">
+        <v>12871</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
       </c>
       <c r="J28">
+        <v>1.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28">
         <v>89.2</v>
       </c>
-      <c r="K28">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>18532</v>
@@ -1793,22 +2054,31 @@
       <c r="G29">
         <v>20016</v>
       </c>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>137</v>
+      <c r="H29">
+        <v>14863</v>
+      </c>
+      <c r="I29">
+        <v>34.7</v>
       </c>
       <c r="J29">
+        <v>2.1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29">
         <v>92.59999999999999</v>
       </c>
-      <c r="K29">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>14797</v>
@@ -1828,22 +2098,31 @@
       <c r="G30">
         <v>16260</v>
       </c>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" t="s">
-        <v>137</v>
+      <c r="H30">
+        <v>12053</v>
+      </c>
+      <c r="I30">
+        <v>34.9</v>
       </c>
       <c r="J30">
+        <v>1.7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30">
         <v>91</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>9579</v>
@@ -1863,22 +2142,31 @@
       <c r="G31">
         <v>11147</v>
       </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s">
-        <v>137</v>
+      <c r="H31">
+        <v>10146</v>
+      </c>
+      <c r="I31">
+        <v>9.9</v>
       </c>
       <c r="J31">
+        <v>1.2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31">
         <v>85.90000000000001</v>
       </c>
-      <c r="K31">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>6052</v>
@@ -1898,22 +2186,31 @@
       <c r="G32">
         <v>7620</v>
       </c>
-      <c r="H32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" t="s">
-        <v>137</v>
+      <c r="H32">
+        <v>8135</v>
+      </c>
+      <c r="I32">
+        <v>-6.3</v>
       </c>
       <c r="J32">
+        <v>0.8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32">
         <v>79.40000000000001</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>7740</v>
@@ -1933,22 +2230,31 @@
       <c r="G33">
         <v>9615</v>
       </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" t="s">
-        <v>137</v>
+      <c r="H33">
+        <v>9641</v>
+      </c>
+      <c r="I33">
+        <v>-0.3</v>
       </c>
       <c r="J33">
+        <v>0.9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33">
         <v>80.5</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>11409</v>
@@ -1968,22 +2274,31 @@
       <c r="G34">
         <v>13159</v>
       </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" t="s">
-        <v>137</v>
+      <c r="H34">
+        <v>12535</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
       </c>
       <c r="J34">
+        <v>1.3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34">
         <v>86.7</v>
       </c>
-      <c r="K34">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>16242</v>
@@ -2003,22 +2318,31 @@
       <c r="G35">
         <v>17893</v>
       </c>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" t="s">
-        <v>137</v>
+      <c r="H35">
+        <v>16115</v>
+      </c>
+      <c r="I35">
+        <v>11</v>
       </c>
       <c r="J35">
+        <v>1.7</v>
+      </c>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35">
         <v>90.8</v>
       </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>18561</v>
@@ -2038,22 +2362,31 @@
       <c r="G36">
         <v>20143</v>
       </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
-        <v>137</v>
+      <c r="H36">
+        <v>15636</v>
+      </c>
+      <c r="I36">
+        <v>28.8</v>
       </c>
       <c r="J36">
+        <v>2.4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M36">
         <v>92.09999999999999</v>
       </c>
-      <c r="K36">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>24763</v>
@@ -2073,22 +2406,31 @@
       <c r="G37">
         <v>26221</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>137</v>
+      <c r="H37">
+        <v>24333</v>
+      </c>
+      <c r="I37">
+        <v>7.8</v>
       </c>
       <c r="J37">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M37">
         <v>94.40000000000001</v>
       </c>
-      <c r="K37">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>8003</v>
@@ -2108,22 +2450,31 @@
       <c r="G38">
         <v>9544</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
+      <c r="H38">
+        <v>11807</v>
+      </c>
+      <c r="I38">
+        <v>-19.2</v>
       </c>
       <c r="J38">
+        <v>1.3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M38">
         <v>83.90000000000001</v>
       </c>
-      <c r="K38">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>11392</v>
@@ -2143,22 +2494,31 @@
       <c r="G39">
         <v>13247</v>
       </c>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" t="s">
-        <v>137</v>
+      <c r="H39">
+        <v>10295</v>
+      </c>
+      <c r="I39">
+        <v>28.7</v>
       </c>
       <c r="J39">
+        <v>1.6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M39">
         <v>86</v>
       </c>
-      <c r="K39">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>13455</v>
@@ -2178,22 +2538,31 @@
       <c r="G40">
         <v>15132</v>
       </c>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" t="s">
-        <v>137</v>
+      <c r="H40">
+        <v>13906</v>
+      </c>
+      <c r="I40">
+        <v>8.800000000000001</v>
       </c>
       <c r="J40">
+        <v>1.5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M40">
         <v>88.90000000000001</v>
       </c>
-      <c r="K40">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>18749</v>
@@ -2213,22 +2582,31 @@
       <c r="G41">
         <v>20452</v>
       </c>
-      <c r="H41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" t="s">
-        <v>137</v>
+      <c r="H41">
+        <v>20016</v>
+      </c>
+      <c r="I41">
+        <v>2.2</v>
       </c>
       <c r="J41">
+        <v>2.1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>140</v>
+      </c>
+      <c r="M41">
         <v>91.7</v>
       </c>
-      <c r="K41">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>14112</v>
@@ -2248,22 +2626,31 @@
       <c r="G42">
         <v>16306</v>
       </c>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" t="s">
-        <v>137</v>
+      <c r="H42">
+        <v>16260</v>
+      </c>
+      <c r="I42">
+        <v>0.3</v>
       </c>
       <c r="J42">
+        <v>1.8</v>
+      </c>
+      <c r="K42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" t="s">
+        <v>140</v>
+      </c>
+      <c r="M42">
         <v>86.5</v>
       </c>
-      <c r="K42">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>10576</v>
@@ -2283,22 +2670,31 @@
       <c r="G43">
         <v>13039</v>
       </c>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" t="s">
-        <v>137</v>
+      <c r="H43">
+        <v>11147</v>
+      </c>
+      <c r="I43">
+        <v>17</v>
       </c>
       <c r="J43">
+        <v>1.2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>140</v>
+      </c>
+      <c r="M43">
         <v>81.09999999999999</v>
       </c>
-      <c r="K43">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>6676</v>
@@ -2318,22 +2714,31 @@
       <c r="G44">
         <v>9420</v>
       </c>
-      <c r="H44" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" t="s">
-        <v>137</v>
+      <c r="H44">
+        <v>7620</v>
+      </c>
+      <c r="I44">
+        <v>23.6</v>
       </c>
       <c r="J44">
+        <v>0.8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44">
         <v>70.90000000000001</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>10680</v>
@@ -2353,22 +2758,31 @@
       <c r="G45">
         <v>13732</v>
       </c>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" t="s">
-        <v>137</v>
+      <c r="H45">
+        <v>9615</v>
+      </c>
+      <c r="I45">
+        <v>42.8</v>
       </c>
       <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
+        <v>140</v>
+      </c>
+      <c r="M45">
         <v>77.8</v>
       </c>
-      <c r="K45">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>14708</v>
@@ -2388,22 +2802,31 @@
       <c r="G46">
         <v>17643</v>
       </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" t="s">
-        <v>137</v>
+      <c r="H46">
+        <v>13159</v>
+      </c>
+      <c r="I46">
+        <v>34.1</v>
       </c>
       <c r="J46">
+        <v>1.5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" t="s">
+        <v>140</v>
+      </c>
+      <c r="M46">
         <v>83.40000000000001</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>21527</v>
@@ -2423,22 +2846,31 @@
       <c r="G47">
         <v>23217</v>
       </c>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" t="s">
-        <v>137</v>
+      <c r="H47">
+        <v>17893</v>
+      </c>
+      <c r="I47">
+        <v>29.8</v>
       </c>
       <c r="J47">
+        <v>2.1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47">
         <v>92.7</v>
       </c>
-      <c r="K47">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B48">
         <v>24389</v>
@@ -2458,22 +2890,31 @@
       <c r="G48">
         <v>26010</v>
       </c>
-      <c r="H48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" t="s">
-        <v>137</v>
+      <c r="H48">
+        <v>20143</v>
+      </c>
+      <c r="I48">
+        <v>29.1</v>
       </c>
       <c r="J48">
+        <v>2.9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48">
         <v>93.8</v>
       </c>
-      <c r="K48">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>28344</v>
@@ -2493,22 +2934,31 @@
       <c r="G49">
         <v>29985</v>
       </c>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" t="s">
-        <v>137</v>
+      <c r="H49">
+        <v>26221</v>
+      </c>
+      <c r="I49">
+        <v>14.4</v>
       </c>
       <c r="J49">
+        <v>3.2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49">
         <v>94.5</v>
       </c>
-      <c r="K49">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>11114</v>
@@ -2528,22 +2978,31 @@
       <c r="G50">
         <v>12768</v>
       </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
-        <v>137</v>
+      <c r="H50">
+        <v>9544</v>
+      </c>
+      <c r="I50">
+        <v>33.8</v>
       </c>
       <c r="J50">
+        <v>1.5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" t="s">
+        <v>140</v>
+      </c>
+      <c r="M50">
         <v>87</v>
       </c>
-      <c r="K50">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>11640</v>
@@ -2563,22 +3022,31 @@
       <c r="G51">
         <v>13570</v>
       </c>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" t="s">
-        <v>137</v>
+      <c r="H51">
+        <v>13247</v>
+      </c>
+      <c r="I51">
+        <v>2.4</v>
       </c>
       <c r="J51">
+        <v>1.5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" t="s">
+        <v>140</v>
+      </c>
+      <c r="M51">
         <v>85.8</v>
       </c>
-      <c r="K51">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>18616</v>
@@ -2598,22 +3066,31 @@
       <c r="G52">
         <v>20411</v>
       </c>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" t="s">
-        <v>137</v>
+      <c r="H52">
+        <v>15132</v>
+      </c>
+      <c r="I52">
+        <v>34.9</v>
       </c>
       <c r="J52">
+        <v>1.8</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" t="s">
+        <v>140</v>
+      </c>
+      <c r="M52">
         <v>91.2</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>2.1</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>23863</v>
@@ -2633,22 +3110,31 @@
       <c r="G53">
         <v>25550</v>
       </c>
-      <c r="H53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" t="s">
-        <v>137</v>
+      <c r="H53">
+        <v>20452</v>
+      </c>
+      <c r="I53">
+        <v>24.9</v>
       </c>
       <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" t="s">
+        <v>140</v>
+      </c>
+      <c r="M53">
         <v>93.40000000000001</v>
       </c>
-      <c r="K53">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>19397</v>
@@ -2668,22 +3154,31 @@
       <c r="G54">
         <v>21358</v>
       </c>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" t="s">
-        <v>137</v>
+      <c r="H54">
+        <v>16306</v>
+      </c>
+      <c r="I54">
+        <v>31</v>
       </c>
       <c r="J54">
+        <v>1.7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M54">
         <v>90.8</v>
       </c>
-      <c r="K54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>13847</v>
@@ -2703,22 +3198,31 @@
       <c r="G55">
         <v>15978</v>
       </c>
-      <c r="H55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" t="s">
-        <v>137</v>
+      <c r="H55">
+        <v>13039</v>
+      </c>
+      <c r="I55">
+        <v>22.5</v>
       </c>
       <c r="J55">
+        <v>1.3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M55">
         <v>86.7</v>
       </c>
-      <c r="K55">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>9124</v>
@@ -2738,22 +3242,31 @@
       <c r="G56">
         <v>11201</v>
       </c>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" t="s">
-        <v>137</v>
+      <c r="H56">
+        <v>9420</v>
+      </c>
+      <c r="I56">
+        <v>18.9</v>
       </c>
       <c r="J56">
+        <v>0.8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" t="s">
+        <v>140</v>
+      </c>
+      <c r="M56">
         <v>81.5</v>
       </c>
-      <c r="K56">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>8811</v>
@@ -2773,22 +3286,31 @@
       <c r="G57">
         <v>11483</v>
       </c>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" t="s">
-        <v>137</v>
+      <c r="H57">
+        <v>13732</v>
+      </c>
+      <c r="I57">
+        <v>-16.4</v>
       </c>
       <c r="J57">
+        <v>0.8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" t="s">
+        <v>140</v>
+      </c>
+      <c r="M57">
         <v>76.7</v>
       </c>
-      <c r="K57">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>18781</v>
@@ -2808,22 +3330,31 @@
       <c r="G58">
         <v>20846</v>
       </c>
-      <c r="H58" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" t="s">
-        <v>137</v>
+      <c r="H58">
+        <v>17643</v>
+      </c>
+      <c r="I58">
+        <v>18.2</v>
       </c>
       <c r="J58">
+        <v>1.7</v>
+      </c>
+      <c r="K58" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" t="s">
+        <v>140</v>
+      </c>
+      <c r="M58">
         <v>90.09999999999999</v>
       </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>26535</v>
@@ -2843,22 +3374,31 @@
       <c r="G59">
         <v>28279</v>
       </c>
-      <c r="H59" t="s">
-        <v>69</v>
-      </c>
-      <c r="I59" t="s">
-        <v>137</v>
+      <c r="H59">
+        <v>23217</v>
+      </c>
+      <c r="I59">
+        <v>21.8</v>
       </c>
       <c r="J59">
+        <v>2.1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" t="s">
+        <v>140</v>
+      </c>
+      <c r="M59">
         <v>93.8</v>
       </c>
-      <c r="K59">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>24964</v>
@@ -2878,22 +3418,31 @@
       <c r="G60">
         <v>26603</v>
       </c>
-      <c r="H60" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" t="s">
-        <v>137</v>
+      <c r="H60">
+        <v>26010</v>
+      </c>
+      <c r="I60">
+        <v>2.3</v>
       </c>
       <c r="J60">
+        <v>2.4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" t="s">
+        <v>140</v>
+      </c>
+      <c r="M60">
         <v>93.8</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>34804</v>
@@ -2913,22 +3462,31 @@
       <c r="G61">
         <v>36473</v>
       </c>
-      <c r="H61" t="s">
-        <v>71</v>
-      </c>
-      <c r="I61" t="s">
-        <v>137</v>
+      <c r="H61">
+        <v>29985</v>
+      </c>
+      <c r="I61">
+        <v>21.6</v>
       </c>
       <c r="J61">
+        <v>3.4</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>140</v>
+      </c>
+      <c r="M61">
         <v>95.40000000000001</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>3.9</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B62">
         <v>10609</v>
@@ -2948,22 +3506,31 @@
       <c r="G62">
         <v>12396</v>
       </c>
-      <c r="H62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I62" t="s">
-        <v>137</v>
+      <c r="H62">
+        <v>12768</v>
+      </c>
+      <c r="I62">
+        <v>-2.9</v>
       </c>
       <c r="J62">
+        <v>1.4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>75</v>
+      </c>
+      <c r="L62" t="s">
+        <v>140</v>
+      </c>
+      <c r="M62">
         <v>85.59999999999999</v>
       </c>
-      <c r="K62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>12095</v>
@@ -2983,22 +3550,31 @@
       <c r="G63">
         <v>14213</v>
       </c>
-      <c r="H63" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s">
-        <v>137</v>
+      <c r="H63">
+        <v>13570</v>
+      </c>
+      <c r="I63">
+        <v>4.7</v>
       </c>
       <c r="J63">
+        <v>1.4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" t="s">
+        <v>140</v>
+      </c>
+      <c r="M63">
         <v>85.09999999999999</v>
       </c>
-      <c r="K63">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>19682</v>
@@ -3018,22 +3594,31 @@
       <c r="G64">
         <v>21493</v>
       </c>
-      <c r="H64" t="s">
-        <v>74</v>
-      </c>
-      <c r="I64" t="s">
-        <v>137</v>
+      <c r="H64">
+        <v>20411</v>
+      </c>
+      <c r="I64">
+        <v>5.3</v>
       </c>
       <c r="J64">
+        <v>1.7</v>
+      </c>
+      <c r="K64" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" t="s">
+        <v>140</v>
+      </c>
+      <c r="M64">
         <v>91.59999999999999</v>
       </c>
-      <c r="K64">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="N64">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>26343</v>
@@ -3053,22 +3638,31 @@
       <c r="G65">
         <v>28330</v>
       </c>
-      <c r="H65" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s">
-        <v>137</v>
+      <c r="H65">
+        <v>25550</v>
+      </c>
+      <c r="I65">
+        <v>10.9</v>
       </c>
       <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" t="s">
+        <v>140</v>
+      </c>
+      <c r="M65">
         <v>93</v>
       </c>
-      <c r="K65">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="N65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>17606</v>
@@ -3088,22 +3682,31 @@
       <c r="G66">
         <v>19463</v>
       </c>
-      <c r="H66" t="s">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s">
-        <v>137</v>
+      <c r="H66">
+        <v>21358</v>
+      </c>
+      <c r="I66">
+        <v>-8.9</v>
       </c>
       <c r="J66">
+        <v>1.5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>79</v>
+      </c>
+      <c r="L66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66">
         <v>90.5</v>
       </c>
-      <c r="K66">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>8493</v>
@@ -3123,22 +3726,31 @@
       <c r="G67">
         <v>10283</v>
       </c>
-      <c r="H67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s">
-        <v>137</v>
+      <c r="H67">
+        <v>15978</v>
+      </c>
+      <c r="I67">
+        <v>-35.6</v>
       </c>
       <c r="J67">
+        <v>1.4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>80</v>
+      </c>
+      <c r="L67" t="s">
+        <v>140</v>
+      </c>
+      <c r="M67">
         <v>82.59999999999999</v>
       </c>
-      <c r="K67">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>4266</v>
@@ -3158,22 +3770,31 @@
       <c r="G68">
         <v>5893</v>
       </c>
-      <c r="H68" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s">
-        <v>137</v>
+      <c r="H68">
+        <v>11201</v>
+      </c>
+      <c r="I68">
+        <v>-47.4</v>
       </c>
       <c r="J68">
+        <v>0.9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>81</v>
+      </c>
+      <c r="L68" t="s">
+        <v>140</v>
+      </c>
+      <c r="M68">
         <v>72.40000000000001</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="N68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>7089</v>
@@ -3193,22 +3814,31 @@
       <c r="G69">
         <v>9709</v>
       </c>
-      <c r="H69" t="s">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s">
-        <v>137</v>
+      <c r="H69">
+        <v>11483</v>
+      </c>
+      <c r="I69">
+        <v>-15.4</v>
       </c>
       <c r="J69">
+        <v>0.9</v>
+      </c>
+      <c r="K69" t="s">
+        <v>82</v>
+      </c>
+      <c r="L69" t="s">
+        <v>140</v>
+      </c>
+      <c r="M69">
         <v>73</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="N69">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>15574</v>
@@ -3228,22 +3858,31 @@
       <c r="G70">
         <v>17570</v>
       </c>
-      <c r="H70" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s">
-        <v>137</v>
+      <c r="H70">
+        <v>20846</v>
+      </c>
+      <c r="I70">
+        <v>-15.7</v>
       </c>
       <c r="J70">
+        <v>1.5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" t="s">
+        <v>140</v>
+      </c>
+      <c r="M70">
         <v>88.59999999999999</v>
       </c>
-      <c r="K70">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="N70">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>21499</v>
@@ -3263,22 +3902,31 @@
       <c r="G71">
         <v>23767</v>
       </c>
-      <c r="H71" t="s">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s">
-        <v>137</v>
+      <c r="H71">
+        <v>28279</v>
+      </c>
+      <c r="I71">
+        <v>-16</v>
       </c>
       <c r="J71">
+        <v>1.7</v>
+      </c>
+      <c r="K71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L71" t="s">
+        <v>140</v>
+      </c>
+      <c r="M71">
         <v>90.5</v>
       </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="N71">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>26152</v>
@@ -3298,22 +3946,31 @@
       <c r="G72">
         <v>28090</v>
       </c>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s">
-        <v>137</v>
+      <c r="H72">
+        <v>26603</v>
+      </c>
+      <c r="I72">
+        <v>5.6</v>
       </c>
       <c r="J72">
+        <v>2.4</v>
+      </c>
+      <c r="K72" t="s">
+        <v>85</v>
+      </c>
+      <c r="L72" t="s">
+        <v>140</v>
+      </c>
+      <c r="M72">
         <v>93.09999999999999</v>
       </c>
-      <c r="K72">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="N72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>30297</v>
@@ -3333,22 +3990,31 @@
       <c r="G73">
         <v>32143</v>
       </c>
-      <c r="H73" t="s">
-        <v>83</v>
-      </c>
-      <c r="I73" t="s">
-        <v>137</v>
+      <c r="H73">
+        <v>36473</v>
+      </c>
+      <c r="I73">
+        <v>-11.9</v>
       </c>
       <c r="J73">
+        <v>2.9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>86</v>
+      </c>
+      <c r="L73" t="s">
+        <v>140</v>
+      </c>
+      <c r="M73">
         <v>94.3</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>3.4</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>11822</v>
@@ -3368,22 +4034,31 @@
       <c r="G74">
         <v>13907</v>
       </c>
-      <c r="H74" t="s">
-        <v>84</v>
-      </c>
-      <c r="I74" t="s">
-        <v>137</v>
+      <c r="H74">
+        <v>12396</v>
+      </c>
+      <c r="I74">
+        <v>12.2</v>
       </c>
       <c r="J74">
+        <v>1.3</v>
+      </c>
+      <c r="K74" t="s">
+        <v>87</v>
+      </c>
+      <c r="L74" t="s">
+        <v>140</v>
+      </c>
+      <c r="M74">
         <v>85</v>
       </c>
-      <c r="K74">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="N74">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>16854</v>
@@ -3403,22 +4078,31 @@
       <c r="G75">
         <v>19657</v>
       </c>
-      <c r="H75" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" t="s">
-        <v>137</v>
+      <c r="H75">
+        <v>14213</v>
+      </c>
+      <c r="I75">
+        <v>38.3</v>
       </c>
       <c r="J75">
+        <v>1.7</v>
+      </c>
+      <c r="K75" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75" t="s">
+        <v>140</v>
+      </c>
+      <c r="M75">
         <v>85.7</v>
       </c>
-      <c r="K75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="N75">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>26377</v>
@@ -3438,22 +4122,31 @@
       <c r="G76">
         <v>28672</v>
       </c>
-      <c r="H76" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" t="s">
-        <v>137</v>
+      <c r="H76">
+        <v>21493</v>
+      </c>
+      <c r="I76">
+        <v>33.4</v>
       </c>
       <c r="J76">
+        <v>2.1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>89</v>
+      </c>
+      <c r="L76" t="s">
+        <v>140</v>
+      </c>
+      <c r="M76">
         <v>92</v>
       </c>
-      <c r="K76">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="N76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>29495</v>
@@ -3473,22 +4166,31 @@
       <c r="G77">
         <v>31762</v>
       </c>
-      <c r="H77" t="s">
-        <v>87</v>
-      </c>
-      <c r="I77" t="s">
-        <v>137</v>
+      <c r="H77">
+        <v>28330</v>
+      </c>
+      <c r="I77">
+        <v>12.1</v>
       </c>
       <c r="J77">
+        <v>2.2</v>
+      </c>
+      <c r="K77" t="s">
+        <v>90</v>
+      </c>
+      <c r="L77" t="s">
+        <v>140</v>
+      </c>
+      <c r="M77">
         <v>92.90000000000001</v>
       </c>
-      <c r="K77">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="N77">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>25083</v>
@@ -3508,22 +4210,31 @@
       <c r="G78">
         <v>27926</v>
       </c>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-      <c r="I78" t="s">
-        <v>137</v>
+      <c r="H78">
+        <v>19463</v>
+      </c>
+      <c r="I78">
+        <v>43.5</v>
       </c>
       <c r="J78">
+        <v>1.9</v>
+      </c>
+      <c r="K78" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" t="s">
+        <v>140</v>
+      </c>
+      <c r="M78">
         <v>89.8</v>
       </c>
-      <c r="K78">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="N78">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>13094</v>
@@ -3543,22 +4254,31 @@
       <c r="G79">
         <v>15685</v>
       </c>
-      <c r="H79" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" t="s">
-        <v>137</v>
+      <c r="H79">
+        <v>10283</v>
+      </c>
+      <c r="I79">
+        <v>52.5</v>
       </c>
       <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" t="s">
+        <v>140</v>
+      </c>
+      <c r="M79">
         <v>83.5</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="N79">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>13393</v>
@@ -3578,22 +4298,31 @@
       <c r="G80">
         <v>16208</v>
       </c>
-      <c r="H80" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" t="s">
-        <v>137</v>
+      <c r="H80">
+        <v>5893</v>
+      </c>
+      <c r="I80">
+        <v>175</v>
       </c>
       <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s">
+        <v>140</v>
+      </c>
+      <c r="M80">
         <v>82.59999999999999</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="N80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>10370</v>
@@ -3613,22 +4342,31 @@
       <c r="G81">
         <v>13860</v>
       </c>
-      <c r="H81" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" t="s">
-        <v>137</v>
+      <c r="H81">
+        <v>9709</v>
+      </c>
+      <c r="I81">
+        <v>42.8</v>
       </c>
       <c r="J81">
+        <v>0.8</v>
+      </c>
+      <c r="K81" t="s">
+        <v>94</v>
+      </c>
+      <c r="L81" t="s">
+        <v>140</v>
+      </c>
+      <c r="M81">
         <v>74.8</v>
       </c>
-      <c r="K81">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="N81">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>26086</v>
@@ -3648,22 +4386,31 @@
       <c r="G82">
         <v>28962</v>
       </c>
-      <c r="H82" t="s">
-        <v>92</v>
-      </c>
-      <c r="I82" t="s">
-        <v>137</v>
+      <c r="H82">
+        <v>17570</v>
+      </c>
+      <c r="I82">
+        <v>64.8</v>
       </c>
       <c r="J82">
+        <v>1.9</v>
+      </c>
+      <c r="K82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s">
+        <v>140</v>
+      </c>
+      <c r="M82">
         <v>90.09999999999999</v>
       </c>
-      <c r="K82">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="N82">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>33697</v>
@@ -3683,22 +4430,31 @@
       <c r="G83">
         <v>36243</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83">
+        <v>23767</v>
+      </c>
+      <c r="I83">
+        <v>52.5</v>
+      </c>
+      <c r="J83">
+        <v>2.3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>96</v>
+      </c>
+      <c r="L83" t="s">
+        <v>140</v>
+      </c>
+      <c r="M83">
         <v>93</v>
       </c>
-      <c r="I83" t="s">
-        <v>137</v>
-      </c>
-      <c r="J83">
-        <v>93</v>
-      </c>
-      <c r="K83">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="N83">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>32024</v>
@@ -3718,22 +4474,31 @@
       <c r="G84">
         <v>34322</v>
       </c>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84" t="s">
-        <v>137</v>
+      <c r="H84">
+        <v>28090</v>
+      </c>
+      <c r="I84">
+        <v>22.2</v>
       </c>
       <c r="J84">
+        <v>2.6</v>
+      </c>
+      <c r="K84" t="s">
+        <v>97</v>
+      </c>
+      <c r="L84" t="s">
+        <v>140</v>
+      </c>
+      <c r="M84">
         <v>93.3</v>
       </c>
-      <c r="K84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="N84">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>41744</v>
@@ -3753,22 +4518,31 @@
       <c r="G85">
         <v>44050</v>
       </c>
-      <c r="H85" t="s">
-        <v>95</v>
-      </c>
-      <c r="I85" t="s">
-        <v>137</v>
+      <c r="H85">
+        <v>32143</v>
+      </c>
+      <c r="I85">
+        <v>37</v>
       </c>
       <c r="J85">
+        <v>3.3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>98</v>
+      </c>
+      <c r="L85" t="s">
+        <v>140</v>
+      </c>
+      <c r="M85">
         <v>94.8</v>
       </c>
-      <c r="K85">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="N85">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>18216</v>
@@ -3788,22 +4562,31 @@
       <c r="G86">
         <v>20559</v>
       </c>
-      <c r="H86" t="s">
-        <v>96</v>
-      </c>
-      <c r="I86" t="s">
-        <v>137</v>
+      <c r="H86">
+        <v>13907</v>
+      </c>
+      <c r="I86">
+        <v>47.8</v>
       </c>
       <c r="J86">
+        <v>1.7</v>
+      </c>
+      <c r="K86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" t="s">
+        <v>140</v>
+      </c>
+      <c r="M86">
         <v>88.59999999999999</v>
       </c>
-      <c r="K86">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="N86">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>16921</v>
@@ -3823,22 +4606,31 @@
       <c r="G87">
         <v>19836</v>
       </c>
-      <c r="H87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I87" t="s">
-        <v>137</v>
+      <c r="H87">
+        <v>19657</v>
+      </c>
+      <c r="I87">
+        <v>0.9</v>
       </c>
       <c r="J87">
+        <v>1.6</v>
+      </c>
+      <c r="K87" t="s">
+        <v>100</v>
+      </c>
+      <c r="L87" t="s">
+        <v>140</v>
+      </c>
+      <c r="M87">
         <v>85.3</v>
       </c>
-      <c r="K87">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="N87">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>28491</v>
@@ -3858,22 +4650,31 @@
       <c r="G88">
         <v>30820</v>
       </c>
-      <c r="H88" t="s">
-        <v>98</v>
-      </c>
-      <c r="I88" t="s">
-        <v>137</v>
+      <c r="H88">
+        <v>28672</v>
+      </c>
+      <c r="I88">
+        <v>7.5</v>
       </c>
       <c r="J88">
+        <v>2.5</v>
+      </c>
+      <c r="K88" t="s">
+        <v>101</v>
+      </c>
+      <c r="L88" t="s">
+        <v>140</v>
+      </c>
+      <c r="M88">
         <v>92.40000000000001</v>
       </c>
-      <c r="K88">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="N88">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>32399</v>
@@ -3893,22 +4694,31 @@
       <c r="G89">
         <v>34441</v>
       </c>
-      <c r="H89" t="s">
-        <v>99</v>
-      </c>
-      <c r="I89" t="s">
-        <v>137</v>
+      <c r="H89">
+        <v>31762</v>
+      </c>
+      <c r="I89">
+        <v>8.4</v>
       </c>
       <c r="J89">
+        <v>3.2</v>
+      </c>
+      <c r="K89" t="s">
+        <v>102</v>
+      </c>
+      <c r="L89" t="s">
+        <v>140</v>
+      </c>
+      <c r="M89">
         <v>94.09999999999999</v>
       </c>
-      <c r="K89">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="N89">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>21735</v>
@@ -3928,22 +4738,31 @@
       <c r="G90">
         <v>23898</v>
       </c>
-      <c r="H90" t="s">
-        <v>100</v>
-      </c>
-      <c r="I90" t="s">
-        <v>137</v>
+      <c r="H90">
+        <v>27926</v>
+      </c>
+      <c r="I90">
+        <v>-14.4</v>
       </c>
       <c r="J90">
+        <v>2.4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>103</v>
+      </c>
+      <c r="L90" t="s">
+        <v>140</v>
+      </c>
+      <c r="M90">
         <v>90.90000000000001</v>
       </c>
-      <c r="K90">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="N90">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>16128</v>
@@ -3963,22 +4782,31 @@
       <c r="G91">
         <v>18118</v>
       </c>
-      <c r="H91" t="s">
-        <v>101</v>
-      </c>
-      <c r="I91" t="s">
-        <v>137</v>
+      <c r="H91">
+        <v>15685</v>
+      </c>
+      <c r="I91">
+        <v>15.5</v>
       </c>
       <c r="J91">
+        <v>1.8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>104</v>
+      </c>
+      <c r="L91" t="s">
+        <v>140</v>
+      </c>
+      <c r="M91">
         <v>89</v>
       </c>
-      <c r="K91">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="N91">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>10525</v>
@@ -3998,22 +4826,31 @@
       <c r="G92">
         <v>12757</v>
       </c>
-      <c r="H92" t="s">
-        <v>102</v>
-      </c>
-      <c r="I92" t="s">
-        <v>137</v>
+      <c r="H92">
+        <v>16208</v>
+      </c>
+      <c r="I92">
+        <v>-21.3</v>
       </c>
       <c r="J92">
+        <v>1.3</v>
+      </c>
+      <c r="K92" t="s">
+        <v>105</v>
+      </c>
+      <c r="L92" t="s">
+        <v>140</v>
+      </c>
+      <c r="M92">
         <v>82.5</v>
       </c>
-      <c r="K92">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="N92">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>12604</v>
@@ -4033,22 +4870,31 @@
       <c r="G93">
         <v>15711</v>
       </c>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-      <c r="I93" t="s">
-        <v>137</v>
+      <c r="H93">
+        <v>13860</v>
+      </c>
+      <c r="I93">
+        <v>13.4</v>
       </c>
       <c r="J93">
+        <v>1.4</v>
+      </c>
+      <c r="K93" t="s">
+        <v>106</v>
+      </c>
+      <c r="L93" t="s">
+        <v>140</v>
+      </c>
+      <c r="M93">
         <v>80.2</v>
       </c>
-      <c r="K93">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="N93">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>18430</v>
@@ -4068,22 +4914,31 @@
       <c r="G94">
         <v>20769</v>
       </c>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-      <c r="I94" t="s">
-        <v>137</v>
+      <c r="H94">
+        <v>28962</v>
+      </c>
+      <c r="I94">
+        <v>-28.3</v>
       </c>
       <c r="J94">
+        <v>1.9</v>
+      </c>
+      <c r="K94" t="s">
+        <v>107</v>
+      </c>
+      <c r="L94" t="s">
+        <v>140</v>
+      </c>
+      <c r="M94">
         <v>88.7</v>
       </c>
-      <c r="K94">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="N94">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>30203</v>
@@ -4103,22 +4958,31 @@
       <c r="G95">
         <v>32356</v>
       </c>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" t="s">
-        <v>137</v>
+      <c r="H95">
+        <v>36243</v>
+      </c>
+      <c r="I95">
+        <v>-10.7</v>
       </c>
       <c r="J95">
+        <v>2.8</v>
+      </c>
+      <c r="K95" t="s">
+        <v>108</v>
+      </c>
+      <c r="L95" t="s">
+        <v>140</v>
+      </c>
+      <c r="M95">
         <v>93.3</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>3.4</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>30987</v>
@@ -4138,22 +5002,31 @@
       <c r="G96">
         <v>33043</v>
       </c>
-      <c r="H96" t="s">
-        <v>106</v>
-      </c>
-      <c r="I96" t="s">
-        <v>137</v>
+      <c r="H96">
+        <v>34322</v>
+      </c>
+      <c r="I96">
+        <v>-3.7</v>
       </c>
       <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>109</v>
+      </c>
+      <c r="L96" t="s">
+        <v>140</v>
+      </c>
+      <c r="M96">
         <v>93.8</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>3.5</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>42919</v>
@@ -4173,22 +5046,31 @@
       <c r="G97">
         <v>45333</v>
       </c>
-      <c r="H97" t="s">
-        <v>107</v>
-      </c>
-      <c r="I97" t="s">
-        <v>137</v>
+      <c r="H97">
+        <v>44050</v>
+      </c>
+      <c r="I97">
+        <v>2.9</v>
       </c>
       <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97" t="s">
+        <v>110</v>
+      </c>
+      <c r="L97" t="s">
+        <v>140</v>
+      </c>
+      <c r="M97">
         <v>94.7</v>
       </c>
-      <c r="K97">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="N97">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>19558</v>
@@ -4208,22 +5090,31 @@
       <c r="G98">
         <v>22113</v>
       </c>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-      <c r="I98" t="s">
-        <v>137</v>
+      <c r="H98">
+        <v>20559</v>
+      </c>
+      <c r="I98">
+        <v>7.6</v>
       </c>
       <c r="J98">
+        <v>2.3</v>
+      </c>
+      <c r="K98" t="s">
+        <v>111</v>
+      </c>
+      <c r="L98" t="s">
+        <v>140</v>
+      </c>
+      <c r="M98">
         <v>88.40000000000001</v>
       </c>
-      <c r="K98">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="N98">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>19515</v>
@@ -4243,22 +5134,31 @@
       <c r="G99">
         <v>22529</v>
       </c>
-      <c r="H99" t="s">
-        <v>109</v>
-      </c>
-      <c r="I99" t="s">
-        <v>137</v>
+      <c r="H99">
+        <v>19836</v>
+      </c>
+      <c r="I99">
+        <v>13.6</v>
       </c>
       <c r="J99">
+        <v>2.2</v>
+      </c>
+      <c r="K99" t="s">
+        <v>112</v>
+      </c>
+      <c r="L99" t="s">
+        <v>140</v>
+      </c>
+      <c r="M99">
         <v>86.59999999999999</v>
       </c>
-      <c r="K99">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>35257</v>
@@ -4278,22 +5178,31 @@
       <c r="G100">
         <v>37845</v>
       </c>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-      <c r="I100" t="s">
-        <v>137</v>
+      <c r="H100">
+        <v>30820</v>
+      </c>
+      <c r="I100">
+        <v>22.8</v>
       </c>
       <c r="J100">
+        <v>2.8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>113</v>
+      </c>
+      <c r="L100" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100">
         <v>93.2</v>
       </c>
-      <c r="K100">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="N100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>39134</v>
@@ -4313,22 +5222,31 @@
       <c r="G101">
         <v>41735</v>
       </c>
-      <c r="H101" t="s">
-        <v>111</v>
-      </c>
-      <c r="I101" t="s">
-        <v>137</v>
+      <c r="H101">
+        <v>34441</v>
+      </c>
+      <c r="I101">
+        <v>21.2</v>
       </c>
       <c r="J101">
+        <v>3.1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>114</v>
+      </c>
+      <c r="L101" t="s">
+        <v>140</v>
+      </c>
+      <c r="M101">
         <v>93.8</v>
       </c>
-      <c r="K101">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="N101">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>22640</v>
@@ -4348,22 +5266,31 @@
       <c r="G102">
         <v>25422</v>
       </c>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-      <c r="I102" t="s">
-        <v>137</v>
+      <c r="H102">
+        <v>23898</v>
+      </c>
+      <c r="I102">
+        <v>6.4</v>
       </c>
       <c r="J102">
+        <v>2.1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>115</v>
+      </c>
+      <c r="L102" t="s">
+        <v>140</v>
+      </c>
+      <c r="M102">
         <v>89.09999999999999</v>
       </c>
-      <c r="K102">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="N102">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B103">
         <v>24876</v>
@@ -4383,22 +5310,31 @@
       <c r="G103">
         <v>27627</v>
       </c>
-      <c r="H103" t="s">
-        <v>113</v>
-      </c>
-      <c r="I103" t="s">
-        <v>137</v>
+      <c r="H103">
+        <v>18118</v>
+      </c>
+      <c r="I103">
+        <v>52.5</v>
       </c>
       <c r="J103">
+        <v>2.2</v>
+      </c>
+      <c r="K103" t="s">
+        <v>116</v>
+      </c>
+      <c r="L103" t="s">
+        <v>140</v>
+      </c>
+      <c r="M103">
         <v>90</v>
       </c>
-      <c r="K103">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="N103">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B104">
         <v>12957</v>
@@ -4418,22 +5354,31 @@
       <c r="G104">
         <v>15694</v>
       </c>
-      <c r="H104" t="s">
-        <v>114</v>
-      </c>
-      <c r="I104" t="s">
-        <v>137</v>
+      <c r="H104">
+        <v>12757</v>
+      </c>
+      <c r="I104">
+        <v>23</v>
       </c>
       <c r="J104">
+        <v>1.3</v>
+      </c>
+      <c r="K104" t="s">
+        <v>117</v>
+      </c>
+      <c r="L104" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104">
         <v>82.59999999999999</v>
       </c>
-      <c r="K104">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="N104">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>15810</v>
@@ -4453,22 +5398,31 @@
       <c r="G105">
         <v>19218</v>
       </c>
-      <c r="H105" t="s">
-        <v>115</v>
-      </c>
-      <c r="I105" t="s">
-        <v>137</v>
+      <c r="H105">
+        <v>15711</v>
+      </c>
+      <c r="I105">
+        <v>22.3</v>
       </c>
       <c r="J105">
+        <v>1.4</v>
+      </c>
+      <c r="K105" t="s">
+        <v>118</v>
+      </c>
+      <c r="L105" t="s">
+        <v>140</v>
+      </c>
+      <c r="M105">
         <v>82.3</v>
       </c>
-      <c r="K105">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="N105">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <v>25355</v>
@@ -4488,22 +5442,31 @@
       <c r="G106">
         <v>28613</v>
       </c>
-      <c r="H106" t="s">
-        <v>116</v>
-      </c>
-      <c r="I106" t="s">
-        <v>137</v>
+      <c r="H106">
+        <v>20769</v>
+      </c>
+      <c r="I106">
+        <v>37.8</v>
       </c>
       <c r="J106">
+        <v>2.2</v>
+      </c>
+      <c r="K106" t="s">
+        <v>119</v>
+      </c>
+      <c r="L106" t="s">
+        <v>140</v>
+      </c>
+      <c r="M106">
         <v>88.59999999999999</v>
       </c>
-      <c r="K106">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="N106">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <v>37755</v>
@@ -4523,22 +5486,31 @@
       <c r="G107">
         <v>40758</v>
       </c>
-      <c r="H107" t="s">
-        <v>117</v>
-      </c>
-      <c r="I107" t="s">
-        <v>137</v>
+      <c r="H107">
+        <v>32356</v>
+      </c>
+      <c r="I107">
+        <v>26</v>
       </c>
       <c r="J107">
+        <v>2.7</v>
+      </c>
+      <c r="K107" t="s">
+        <v>120</v>
+      </c>
+      <c r="L107" t="s">
+        <v>140</v>
+      </c>
+      <c r="M107">
         <v>92.59999999999999</v>
       </c>
-      <c r="K107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="N107">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B108">
         <v>42807</v>
@@ -4558,22 +5530,31 @@
       <c r="G108">
         <v>45710</v>
       </c>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-      <c r="I108" t="s">
-        <v>137</v>
+      <c r="H108">
+        <v>33043</v>
+      </c>
+      <c r="I108">
+        <v>38.3</v>
       </c>
       <c r="J108">
+        <v>3.4</v>
+      </c>
+      <c r="K108" t="s">
+        <v>121</v>
+      </c>
+      <c r="L108" t="s">
+        <v>140</v>
+      </c>
+      <c r="M108">
         <v>93.59999999999999</v>
       </c>
-      <c r="K108">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="N108">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>52698</v>
@@ -4593,22 +5574,31 @@
       <c r="G109">
         <v>55665</v>
       </c>
-      <c r="H109" t="s">
-        <v>119</v>
-      </c>
-      <c r="I109" t="s">
-        <v>137</v>
+      <c r="H109">
+        <v>45333</v>
+      </c>
+      <c r="I109">
+        <v>22.8</v>
       </c>
       <c r="J109">
+        <v>4.2</v>
+      </c>
+      <c r="K109" t="s">
+        <v>122</v>
+      </c>
+      <c r="L109" t="s">
+        <v>140</v>
+      </c>
+      <c r="M109">
         <v>94.7</v>
       </c>
-      <c r="K109">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="N109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B110">
         <v>19043</v>
@@ -4628,22 +5618,31 @@
       <c r="G110">
         <v>22065</v>
       </c>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-      <c r="I110" t="s">
-        <v>137</v>
+      <c r="H110">
+        <v>22113</v>
+      </c>
+      <c r="I110">
+        <v>-0.2</v>
       </c>
       <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110" t="s">
+        <v>123</v>
+      </c>
+      <c r="L110" t="s">
+        <v>140</v>
+      </c>
+      <c r="M110">
         <v>86.3</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>2.2</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>24047</v>
@@ -4663,22 +5662,31 @@
       <c r="G111">
         <v>27484</v>
       </c>
-      <c r="H111" t="s">
-        <v>121</v>
-      </c>
-      <c r="I111" t="s">
-        <v>137</v>
+      <c r="H111">
+        <v>22529</v>
+      </c>
+      <c r="I111">
+        <v>22</v>
       </c>
       <c r="J111">
+        <v>2.3</v>
+      </c>
+      <c r="K111" t="s">
+        <v>124</v>
+      </c>
+      <c r="L111" t="s">
+        <v>140</v>
+      </c>
+      <c r="M111">
         <v>87.5</v>
       </c>
-      <c r="K111">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="N111">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B112">
         <v>37653</v>
@@ -4698,22 +5706,31 @@
       <c r="G112">
         <v>40789</v>
       </c>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-      <c r="I112" t="s">
-        <v>137</v>
+      <c r="H112">
+        <v>37845</v>
+      </c>
+      <c r="I112">
+        <v>7.8</v>
       </c>
       <c r="J112">
+        <v>2.7</v>
+      </c>
+      <c r="K112" t="s">
+        <v>125</v>
+      </c>
+      <c r="L112" t="s">
+        <v>140</v>
+      </c>
+      <c r="M112">
         <v>92.3</v>
       </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="N112">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B113">
         <v>40894</v>
@@ -4733,22 +5750,31 @@
       <c r="G113">
         <v>43726</v>
       </c>
-      <c r="H113" t="s">
-        <v>123</v>
-      </c>
-      <c r="I113" t="s">
-        <v>137</v>
+      <c r="H113">
+        <v>41735</v>
+      </c>
+      <c r="I113">
+        <v>4.8</v>
       </c>
       <c r="J113">
+        <v>2.7</v>
+      </c>
+      <c r="K113" t="s">
+        <v>126</v>
+      </c>
+      <c r="L113" t="s">
+        <v>140</v>
+      </c>
+      <c r="M113">
         <v>93.5</v>
       </c>
-      <c r="K113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="N113">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>28485</v>
@@ -4768,22 +5794,31 @@
       <c r="G114">
         <v>31217</v>
       </c>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-      <c r="I114" t="s">
-        <v>137</v>
+      <c r="H114">
+        <v>25422</v>
+      </c>
+      <c r="I114">
+        <v>22.8</v>
       </c>
       <c r="J114">
+        <v>2.1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>127</v>
+      </c>
+      <c r="L114" t="s">
+        <v>140</v>
+      </c>
+      <c r="M114">
         <v>91.2</v>
       </c>
-      <c r="K114">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="N114">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>22652</v>
@@ -4803,22 +5838,31 @@
       <c r="G115">
         <v>25538</v>
       </c>
-      <c r="H115" t="s">
-        <v>125</v>
-      </c>
-      <c r="I115" t="s">
-        <v>137</v>
+      <c r="H115">
+        <v>27627</v>
+      </c>
+      <c r="I115">
+        <v>-7.6</v>
       </c>
       <c r="J115">
+        <v>1.7</v>
+      </c>
+      <c r="K115" t="s">
+        <v>128</v>
+      </c>
+      <c r="L115" t="s">
+        <v>140</v>
+      </c>
+      <c r="M115">
         <v>88.7</v>
       </c>
-      <c r="K115">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="N115">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B116">
         <v>14055</v>
@@ -4838,22 +5882,31 @@
       <c r="G116">
         <v>16831</v>
       </c>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-      <c r="I116" t="s">
-        <v>137</v>
+      <c r="H116">
+        <v>15694</v>
+      </c>
+      <c r="I116">
+        <v>7.2</v>
       </c>
       <c r="J116">
+        <v>1.2</v>
+      </c>
+      <c r="K116" t="s">
+        <v>129</v>
+      </c>
+      <c r="L116" t="s">
+        <v>140</v>
+      </c>
+      <c r="M116">
         <v>83.5</v>
       </c>
-      <c r="K116">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="N116">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B117">
         <v>16892</v>
@@ -4873,22 +5926,31 @@
       <c r="G117">
         <v>20520</v>
       </c>
-      <c r="H117" t="s">
-        <v>127</v>
-      </c>
-      <c r="I117" t="s">
-        <v>137</v>
+      <c r="H117">
+        <v>19218</v>
+      </c>
+      <c r="I117">
+        <v>6.8</v>
       </c>
       <c r="J117">
+        <v>1.3</v>
+      </c>
+      <c r="K117" t="s">
+        <v>130</v>
+      </c>
+      <c r="L117" t="s">
+        <v>140</v>
+      </c>
+      <c r="M117">
         <v>82.3</v>
       </c>
-      <c r="K117">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="N117">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>25123</v>
@@ -4908,22 +5970,31 @@
       <c r="G118">
         <v>28020</v>
       </c>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-      <c r="I118" t="s">
-        <v>137</v>
+      <c r="H118">
+        <v>28613</v>
+      </c>
+      <c r="I118">
+        <v>-2.1</v>
       </c>
       <c r="J118">
+        <v>1.9</v>
+      </c>
+      <c r="K118" t="s">
+        <v>131</v>
+      </c>
+      <c r="L118" t="s">
+        <v>140</v>
+      </c>
+      <c r="M118">
         <v>89.7</v>
       </c>
-      <c r="K118">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="N118">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B119">
         <v>42624</v>
@@ -4943,22 +6014,31 @@
       <c r="G119">
         <v>45354</v>
       </c>
-      <c r="H119" t="s">
-        <v>129</v>
-      </c>
-      <c r="I119" t="s">
-        <v>137</v>
+      <c r="H119">
+        <v>40758</v>
+      </c>
+      <c r="I119">
+        <v>11.3</v>
       </c>
       <c r="J119">
+        <v>2.7</v>
+      </c>
+      <c r="K119" t="s">
+        <v>132</v>
+      </c>
+      <c r="L119" t="s">
+        <v>140</v>
+      </c>
+      <c r="M119">
         <v>94</v>
       </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="N119">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B120">
         <v>46613</v>
@@ -4978,22 +6058,31 @@
       <c r="G120">
         <v>49282</v>
       </c>
-      <c r="H120" t="s">
-        <v>130</v>
-      </c>
-      <c r="I120" t="s">
-        <v>137</v>
+      <c r="H120">
+        <v>45710</v>
+      </c>
+      <c r="I120">
+        <v>7.8</v>
       </c>
       <c r="J120">
+        <v>3.4</v>
+      </c>
+      <c r="K120" t="s">
+        <v>133</v>
+      </c>
+      <c r="L120" t="s">
+        <v>140</v>
+      </c>
+      <c r="M120">
         <v>94.59999999999999</v>
       </c>
-      <c r="K120">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="N120">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B121">
         <v>55329</v>
@@ -5013,22 +6102,31 @@
       <c r="G121">
         <v>57764</v>
       </c>
-      <c r="H121" t="s">
-        <v>131</v>
-      </c>
-      <c r="I121" t="s">
-        <v>137</v>
+      <c r="H121">
+        <v>55665</v>
+      </c>
+      <c r="I121">
+        <v>3.8</v>
       </c>
       <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121" t="s">
+        <v>134</v>
+      </c>
+      <c r="L121" t="s">
+        <v>140</v>
+      </c>
+      <c r="M121">
         <v>95.8</v>
       </c>
-      <c r="K121">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="N121">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>24541</v>
@@ -5048,22 +6146,31 @@
       <c r="G122">
         <v>27549</v>
       </c>
-      <c r="H122" t="s">
-        <v>132</v>
-      </c>
-      <c r="I122" t="s">
-        <v>137</v>
+      <c r="H122">
+        <v>22065</v>
+      </c>
+      <c r="I122">
+        <v>24.9</v>
       </c>
       <c r="J122">
+        <v>2.2</v>
+      </c>
+      <c r="K122" t="s">
+        <v>135</v>
+      </c>
+      <c r="L122" t="s">
+        <v>140</v>
+      </c>
+      <c r="M122">
         <v>89.09999999999999</v>
       </c>
-      <c r="K122">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="N122">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>15459</v>
@@ -5083,22 +6190,31 @@
       <c r="G123">
         <v>18541</v>
       </c>
-      <c r="H123" t="s">
-        <v>133</v>
-      </c>
-      <c r="I123" t="s">
-        <v>137</v>
+      <c r="H123">
+        <v>27484</v>
+      </c>
+      <c r="I123">
+        <v>-32.5</v>
       </c>
       <c r="J123">
+        <v>2.7</v>
+      </c>
+      <c r="K123" t="s">
+        <v>136</v>
+      </c>
+      <c r="L123" t="s">
+        <v>140</v>
+      </c>
+      <c r="M123">
         <v>83.40000000000001</v>
       </c>
-      <c r="K123">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="N123">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>289</v>
@@ -5118,22 +6234,31 @@
       <c r="G124">
         <v>890</v>
       </c>
-      <c r="H124" t="s">
-        <v>134</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="H124">
+        <v>40789</v>
+      </c>
+      <c r="I124">
+        <v>-97.8</v>
+      </c>
+      <c r="J124">
+        <v>1.1</v>
+      </c>
+      <c r="K124" t="s">
         <v>137</v>
       </c>
-      <c r="J124">
+      <c r="L124" t="s">
+        <v>140</v>
+      </c>
+      <c r="M124">
         <v>32.5</v>
       </c>
-      <c r="K124">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B125">
         <v>29</v>
@@ -5153,22 +6278,31 @@
       <c r="G125">
         <v>152</v>
       </c>
-      <c r="H125" t="s">
-        <v>135</v>
-      </c>
-      <c r="I125" t="s">
-        <v>137</v>
+      <c r="H125">
+        <v>43726</v>
+      </c>
+      <c r="I125">
+        <v>-99.7</v>
       </c>
       <c r="J125">
+        <v>0.5</v>
+      </c>
+      <c r="K125" t="s">
+        <v>138</v>
+      </c>
+      <c r="L125" t="s">
+        <v>140</v>
+      </c>
+      <c r="M125">
         <v>19.1</v>
       </c>
-      <c r="K125">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -5188,16 +6322,25 @@
       <c r="G126">
         <v>90</v>
       </c>
-      <c r="H126" t="s">
-        <v>136</v>
-      </c>
-      <c r="I126" t="s">
-        <v>137</v>
+      <c r="H126">
+        <v>31217</v>
+      </c>
+      <c r="I126">
+        <v>-99.7</v>
       </c>
       <c r="J126">
+        <v>0.3</v>
+      </c>
+      <c r="K126" t="s">
+        <v>139</v>
+      </c>
+      <c r="L126" t="s">
+        <v>140</v>
+      </c>
+      <c r="M126">
         <v>2.2</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>0</v>
       </c>
     </row>
